--- a/linkedin_scraper_starter/result.xlsx
+++ b/linkedin_scraper_starter/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,695 +513,696 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hector</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Garcia CPA</t>
+          <t>Butler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hector Garcia CPA</t>
+          <t>Michael Butler</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>REFRAME Conference Host. QuickBooks Consultant specializing in Manufacturers with messy Inventory.</t>
+          <t>CPA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Conference Host (May 2023 - Present · 2 yrs 4 mos)</t>
+          <t>Tax Manager, CPA at Jeb Williamson CPA LLC Jul 2024–Present 1 yr 3 mos</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hector M. Garcia is a CPA and QuickBooks Trainer for Quick Bookkeeping &amp; Accounting LLC. He has over 10 years of experience working with small business finance and accounting, along with 3 Post-graduate degrees from Florida International University (FIU) in Accounting, Finance and Taxation.
-Specialties:
-Certified QuickBooks Advanced ProAdvisor (Desktop and Online)
-Microsoft Excel, Data Import/Export
-Operations and Strategic Advisory
-Bilingual: Español</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Fort Lauderdale, Florida, United States</t>
-        </is>
-      </c>
+          <t>Tax return preparation
+Tax return preparation</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Conference Host (May 2023 - Present · 2 yrs 4 mos)
-Accountant, Business Advisor, and QuickBooks Consultant at Quick Bookkeeping &amp; Accounting LLC (Apr 2009 - Present · 16 yrs 5 mos)
-Certified QuickBooks ProAdvisor / Contracted Trainer at Intuit (Apr 2009 - Present · 16 yrs 5 mos)
-CPA / Business Consultant at Garcia &amp; Company P.A. (Nov 1997 - Present · 27 yrs 10 mos)
-Business Banker at Wells Fargo (Mar 2007 - Feb 2010 · 3 yrs)</t>
+          <t>Retired at Retired
+Treasurer at Cullman Regional Medical Center
+President at Michael Butler CPA, LLC
+Treasurer / Corporate Controller at Centerstone</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/sales/company/24778953</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>http://www.jwilliamsoncpa.com/</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Butler &amp; Brown was a highly respected public accounting firm that had served the Cullman area since the 1970s. Jeb Williamson CPA LLC was founded in 2004 when Jeb had the opportunity to return to his hometown of Cullman, AL to continue the legacy. The firm has experienced consistent growth by strategically adopting new technology, expanding product offerings, and providing outstanding service. In 2017 wealth management was added in response to client demand. Clients Served: Professionals, Service Industry, Nonprofits, Seniors, Entrepreneurs, Investors Specialties: Financial Coach, Small Business Accountant, Investment Advisor for Business Owners &amp; High Net Worth Individuals, Tax Expert, Payroll, Tax Preparer, Tax Planning, CPA, Collaborative Problem Solving, Wealth Management, Provides Peace of Mind, Financial Reporting, Financial Analysis</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/hectormgarciacpa/</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAKEH6wBUJah-ZpMZoAN4dSJF3tRmFf2G-0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Berg MSc, CPCC, PCC, FRSA</t>
+          <t>Levio, CPA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nicole Berg MSc, CPCC, PCC, FRSA</t>
+          <t>Ben Levio, CPA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Multi-award winning founder and CEO partnering with organizations to spot and capitalize on talent and team development opportunities</t>
+          <t>Accounting/Finance</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The London School of Economics and Political Science (LSE) at Master of Science (MSc), Social Policy and Development (2012 - 2013)</t>
+          <t>Certified Public Accountant at Intuit Oct 2020–Present 5 yrs</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>"You gave us what we wanted, and what we didn't know we needed."
-This client quote sums up the aim of my work.
-With a proven record of innovation as an international, multi-award winning founder of a social enterprise and large-scale initiatives, I partner with organisations to spot and capitalise on their talent and team development opportunities for breakthrough impact and results.
-As a creator of a social enterprise and of employee experience and community initiatives, I have a proven knack for finding gaps and catalysing solutions. In support of organisations, I've designed and delivered a range of coaching and training programs for organisations, from culture change to an employer domestic abuse initiative. In support of community, I launched a 12-week pledge campaign that raised $75k for local charities, and in 2024 created a call-in campaign that mobilised people in 84% of constituencies and contributed to resumed government-union negotiations.
-I've received a total of 12 awards for my coaching work. I have supported more than 350 executives, senior and frontline leaders and teams in Fortune Global 10-500 Companies across industries such as Biotechnology, Technology, Pharmaceuticals, Manufacturing, Finance, Construction, Communications, Oil &amp; Gas, and Hospitality as well as Academic, Federal, and Non-Profit Institutions. My clients include Euronext, The National Trust, the Royal Institute of British Architects, the Department of Energy &amp; Climate Change, the Department for Business, Energy &amp; Industrial Strategy, and more.
-I have obtained my MSc Social Policy and Development (London School of Economics), BA Linguistics (University of Saskatchewan), CPCC (Certified Professional Co-Active Coach), PCC (Professional
-Certified Coach) and FRSA (Fellow of the Royal Society for the Encouragement of Arts, Manufactures and
-Commerce) professional designations and combine this with additional certifications (including Advanced Coaching for Groups and Teams, Organisation &amp; Relationship Systems at Work, Certified Executive Coach) and experience to help each client elevate their performance and achieve greater results.
-Excellence in service important to me. My coaching awards include:
-2024 Most Outstanding Executive &amp; Relationship Coach, Global Business Insights
-2021 Best International Executive &amp; Relationship Coach, Corporate Vision Magazine
-2020 Best Professional Training and Coaching Provider - UK, Corporate Vision Magazine
-2018 Career Coach of the Year, Powerhouse Global Women
-2018 Professional Coaching - UK Adviser of the Year, Finance Monthly</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Saskatoon, Saskatchewan, Canada</t>
-        </is>
-      </c>
+          <t>Intuit makes money by providing financial management, compliance, and marketing products and services to consumers, small and mid-market businesses, and accounting professionals. Their revenue streams include subscriptions, transaction fees, and service fees. Their target market includes consumers, small and mid-market businesses, and professional accountants. Top solutions include TurboTax for tax preparation, QuickBooks for business management, Credit Karma for personal finance, and Mailchimp for marketing automation.
+Intuit makes money by providing financial management, compliance, and marketing products and services to consumers, small and mid-market businesses, and accounting professionals. Their revenue streams include subscriptions, transaction fees, and service fees. Their target market includes consumers, small and mid-market businesses, and professional accountants. Top solutions include TurboTax for tax preparation, QuickBooks for business management, Credit Karma for personal finance, and Mailchimp for marketing automation.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>The London School of Economics and Political Science (LSE) at Master of Science (MSc), Social Policy and Development (2012 - 2013)
-The Coaches Training Institute at Co-Active Coach Training Programme, Certified Professional Co-Active Coach (CPCC) (2013 - 2016)</t>
+          <t>Certified Public Accountant at Intuit
+Managing Partner at Self-employed
+Auditor at State of Alabama
+Assistant Controller at Bright House Networks</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>The London School of Economics and Political Science (LSE)</t>
+          <t>Intuit</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/6544/</t>
+          <t>https://www.linkedin.com/sales/company/1666</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>http://www.lse.ac.uk/</t>
+          <t>https://www.intuit.com/</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>We're a world-leading university, unique in our dedication to the social sciences.</t>
+          <t>Intuit is a global technology platform that helps our customers and communities overcome their most important financial challenges. Serving millions of customers worldwide with TurboTax, QuickBooks, Credit Karma and Mailchimp, we believe that everyone should have the opportunity to prosper and we work tirelessly to find new, innovative ways to deliver on this belief. We encourage conversations on this page and will not delete comments that follow our terms of use. In order to keep this a safe community, the below posts may be removed: Repeated posts of the same content, spam or posts from fake accounts or profiles, offensive language or material, threats to others in the community, posts deliberately aimed to have a negative effect on the community or conversations.</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/nicolejberg/</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAACnh_iMBbpAz2y99ALOjUNgavH4qQGbKTNE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vivek</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kumar, F.IOD</t>
+          <t>Farris</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vivek Kumar, F.IOD</t>
+          <t>Andrew Farris</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CEO, WWF-SG | Driving Climate, Nature &amp; Systems Transformation | Ex-Energy &amp; Singapore Public Sector | Board Advisor | Fellow, Institute of Directors, India</t>
+          <t>Certified Public Accountant</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WWF-Singapore (Jan 2024 - Present · 1 yr 8 mos)</t>
+          <t>Tax Director at CLA (CliftonLarsonAllen) May 2024–Present 1 yr 5 mos</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Driving systemic change at the intersection of business, climate, and community 🌏
-I serve as the CEO of WWF in Singapore and a Member of WWF’s Asia Pacific Stakeholder Executive for 30 countries across Asia Pacific, where we lead regional and global efforts to advance climate action, nature-based solutions, sustainable finance, and inclusive development.
-Together with a committed team of 130 professionals, we partner with governments, companies, and communities to drive change. From restoring mangroves, to protecting the Coral Triangle, to financing green, our focus is on delivering lasting impact through science, collaboration, and systems thinking.
-We launched the WWF Earth Summit to convene leaders from the private sector, public institutions, and civil society - driving meaningful commitments for nature and climate. Through the SCeNe Coalition, which I co-chair, we work with nine international NGOs to shape regional policies on high-integrity carbon markets and nature-based solutions.
-Prior to WWF, I held leadership roles in the energy sector (Shell) and Singapore’s public service - experiences that continue to inform how we connect business transformation with policy, innovation, and community resilience.
-I’ve had the opportunity to serve as a member on the boards of Enterprise Singapore, IMDA, NTUC Link, and Assurity Trusted Solutions (GovTech Singapore) for several terms - contributing to national strategies in digital identity, trade, and public sector innovation.
-An HBS alumnus and a lifelong learner, I stay engaged through teaching, policy advisory, and regional coalitions - so we lead together toward a more sustainable and equitable future. My thoughts have been featured in The Economist, FinanceAsia, Channel NewsAsia, Business Times, and The Peak.
-Always open to exchanging ideas and learning from others working to build a resilient, net-zero, and nature-positive world. Let’s connect 🌳</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Singapore, Singapore</t>
-        </is>
-      </c>
+          <t>CliftonLarsonAllen (CLA) makes money by providing integrated wealth advisory, digital, audit, tax, outsourcing, and consulting services. They target a diverse range of clients, including individuals, businesses, and organizations across various industries. Examples of their top solutions include wealth management, tax planning, audit services, and business consulting. CLA has a significant presence in the US and serves over 200,000 clients in 130 different countries.
+CliftonLarsonAllen (CLA) makes money by providing integrated wealth advisory, digital, audit, tax, outsourcing, and consulting services. They target a diverse range of clients, including individuals, businesses, and organizations across various industries. Examples of their top solutions include wealth management, tax planning, audit services, and business consulting. CLA has a significant presence in the US and serves over 200,000 clients in 130 different countries.
+Certified Public Accountant with a demonstrated history of working in the accounting industry. Skilled in Quickbooks, QuickBooks Online, Creative Solutions Accounting, Tax, and Project Management software, Microsoft Excel, Microsoft Word, Accounting, Payroll, Sales and Use Tax, and Individual and Business Taxation. Strong accounting professional with a Master of Business Administration (M.B.A.) focused in Accounting and Business/Management from University of Montevallo.
+Show less</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>WWF-Singapore (Jan 2024 - Present · 1 yr 8 mos)
-Vice Chairman (Jan 2025 - Present · 8 mos)
-Group Director, Strategic Marketing &amp; Retail Media Network (Oct 2020 - Nov 2021 · 1 yr 2 mos)
-Assistant Director-General (ADG) (Jan 2011 - Oct 2020 · 9 yrs 10 mos)
-Executive Board Member at NTUC Link (Jan 2012 - Mar 2019 · 7 yrs 3 mos)</t>
+          <t>Tax Director at CLA (CliftonLarsonAllen)
+Certified Public Accountant at Certified Public Accountant (CPA)
+Tax Manager at Ronald Blue &amp; Co. | CPAs (Acquired by CLA)
+Owner at Andrew's Lawn Service</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>WWF-Singapore</t>
+          <t>CLA (CliftonLarsonAllen)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/13217163/</t>
+          <t>https://www.linkedin.com/sales/company/2437248</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>http://www.wwf.sg/seastheday</t>
+          <t>https://www.claconnect.com/</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>World Wide Fund for Nature (WWF) is one of the world’s largest and most experienced independent conservation organisations.
-As one of WWF’s international hubs, WWF-Singapore supports a global network spanning over 100 countries. We work to meet key conservation goals, such as tackling deforestation and illegal wildlife trade, as well as promoting food security, sustainable finance, sustainable consumption. For more information, visit wwf.sg.</t>
+          <t>CLA exists to create opportunities for our clients, our people, and our communities through industry-focused wealth advisory, outsourcing, audit, tax, and consulting services. With more than 9,000 people, 130 U.S. locations and a global affiliation, we promise to know you and help you. For more information visit CLAconnect.com. Investment advisory services are offered through CliftonLarsonAllen Wealth Advisors, LLC, an SEC-registered investment advisor. CLA is an equal opportunity employer and all qualified applicants will receive consideration for employment without regard to race, color, religion, sex, sexual orientation, gender identity, disability status, protected veteran status, national origin, or any other characteristic protected by law. EOE/AA Employer/Vets/Disability Hiring rights: https://www.claconnect.com/general/equal-employment-opportunity Disclaimer: http://www.CLAconnect.com/Disclaimer/</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/vivekworld/</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAABbzRGQBuIIstrucWO1a2_5kFl5xcaBXdvA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aristea</t>
+          <t>Darryl</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dimitropoulou</t>
+          <t>Talley</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aristea Dimitropoulou</t>
+          <t>Darryl Talley</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Financial Guru &amp; Wealth Mindset Mentor | Head of Accounting at CA Auto Bank GmbH, Drivalia Lease Hellas SMSA &amp; CA Auto Insurance Hellas SMSA | Lean in Circle Leader "Women in Personal Finance" | Author in Children Books</t>
+          <t>GAAP Reporting * Tax Compliance Reporting * Management Team Member * Build Business for Merger &amp; Acquisition</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Financial Guru &amp; Wealth Mindset Mentor | Head of Accounting at CA Auto Bank GmbH, Drivalia Lease Hellas SMSA &amp; CA Auto Insurance Hellas SMSA | Lean in Circle Leader "Women in Personal Finance" | Author in Children Books</t>
+          <t>CPA / CGMA / CRE at Darryl R. Talley, CPA, P.C. May 2005–Present 20 yrs 5 mos</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>I’m Aristea Dimitropoulou — Strategic Finance Executive (CPA, BA, MBA, ACCA) with 25+ years of leadership in multinational environments, and a Financial Trainer helping individuals and businesses build lasting confidence with money.
-As a CFO-level expert, I have led finance, accounting, and compliance teams across Commercial, Insurance, Automotive, Banking, Hospitality, and Tech industries. My experience includes cost optimization (20% decrease in variable costs), process improvement (30% faster month-end closings), and data-driven decision support. I’m fluent in global reporting, treasury, tax strategy, and cross-border team management.
-But numbers were never the whole story.
-They’re the vehicle — not the destination.
-That’s why I founded a digital platform to deliver recorded trainings on Personal Finance, Business Finance, and Money Mindset, mini-trainings, toolkits — making financial clarity accessible to professionals, freelancers, and entrepreneurs who want to stop surviving and start thriving.
-Through my brand, I offer practical, psychology-informed education:
-• Personal Finance Basics for adults and youth
-• Overspending &amp; Impulse Buying Recovery
-• Budgeting &amp; Saving Systems that actually stick
-• Debt &amp; Cash Flow Reset
-• Goal-Based Planning &amp; Investing for beginners
-• How SMEs Should Price for Profit
-• Business Finance for Freelancers &amp; SMEs
-• Corporate Financial Wellbeing for teams
-• Mindset Shifts for Financial Confidence
-I don’t do your books.
-I teach you how to reclaim control — with strategy, self-worth, and structure.
-I speak 1-2 times/month at organizations and conferences — and offer on-demand courses in Greek &amp; English for busy professionals who want freedom from financial stress without accounting jargon.
-💼 Credentials: CPA | BA | MBA | ACCA | NLP Practitioner | Financial Education Mentor
-🧠 Areas: AI for Finance | Women’s Wealth | Entrepreneurial Thinking
-🌍 Languages: English | Greek | Spanish
-🚀 Founder of: “Money Talks with Aristea” (EN) &amp; “The Wealth Empowerment Hub” (GR) newsletters
-🤝 Trainer at Lean In Network &amp; IforU
-🚀 Mission: Help people take charge of their money and reach financial clarity
-Let’s build a business — and a life — that money supports, not controls.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Marousi, Attiki, Greece</t>
-        </is>
-      </c>
+          <t>Results-oriented professional with demonstrated success in the implementation of streamlining policies and procedures. Solid organizational skills in coordinating all aspects of projects from inception through completion. Sees the big picture and plans ap
+* Tax compliance (tax return preparation), tax planning and accounting for various businesses and individuals, and business consulting.
+* Contracted with PriceWaterhouseCoopers (PwC) on a large partnership tax project.
+* Contracted with Tidwell DeWitt CPAs to assist with correcting HealthSouth's partnership accounting for over 1,300 partnerships.
+* Began the process of converting the company to GAAP basis accounting for financial accounting reporting.
+* Determined there was consumers use tax exposure. Determined the amount and successfully completed some of the voluntary disclosure agreements with local government.
+* Brought depreciation in-house.
+* Created accounting department and processes
+* Developed accounting policies and procedures in anticipation of initiating auditing of financials
+* Responsible for most Human Resource functions and Payroll
+* Instigated in-house depreciable asset tracking and depreciation reporting (G
+Participated in accounting processes as well as managed other accountants to achieve compliance with GAAP and company policy. Responsible for several month-end closing items of a large company. Provide insight and feedback based upon a long and extremely extensive accounting career.
+* Created accounting department and processes - SaaS Tech Industry
+* Significant involvement in obtaining private equity funding, as well as ongoing reporting
+* Successfully took lead on due diligence associated with selling the company 10/13/2017
+* Six years of audited financial statements and zero auditor adjustments
+* Served on Management Team responsible for driving the business to sustain
+Results-oriented professional with demonstrated success in the implementation of streamlining policies and procedures. Solid organizational skills in coordinating all aspects of projects from inception through completion. Sees the big picture and plans ap
+Results-oriented professional with demonstrated success in the implementation of streamlining policies and procedures. Solid organizational skills in coordinating all aspects of projects from inception through completion. Sees the big picture and plans ap
+* Tax compliance (tax return preparation), tax planning and accounting for various businesses and individuals, and business consulting.
+* Contracted with PriceWaterhouseCoopers (PwC) on a large partnership tax project.
+* Contracted with Tidwell DeWitt CPAs to assist with correcting HealthSouth's partnership accounting for over 1,300 partnerships.
+* Began the process of converting the company to GAAP basis accounting for financial accounting reporting.
+* Determined there was consumers use tax exposure. Determined the amount and successfully completed some of the voluntary disclosure agreements with local government.
+* Brought depreciation in-house.
+* Created accounting department and processes
+* Developed accounting policies and procedures in anticipation of initiating auditing of financials
+* Responsible for most Human Resource functions and Payroll
+* Instigated in-house depreciable asset tracking and depreciation reporting (G
+Participated in accounting processes as well as managed other accountants to achieve compliance with GAAP and company policy. Responsible for several month-end closing items of a large company. Provide insight and feedback based upon a long and extremely extensive accounting career.
+* Created accounting department and processes - SaaS Tech Industry
+* Significant involvement in obtaining private equity funding, as well as ongoing reporting
+* Successfully took lead on due diligence associated with selling the company 10/13/2017
+* Six years of audited financial statements and zero auditor adjustments
+* Served on Management Team responsible for driving the business to sustain
+Results-oriented professional with demonstrated success in the implementation of streamlining policies and procedures. Solid organizational skills in coordinating all aspects of projects from inception through completion. Sees the big picture and plans ap</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CPA / CGMA / CRE at Darryl R. Talley, CPA, P.C.
+VP of Finance / Treasurer at Madison Core Laboratories, LLC
+Controller at Circulogene Theranostics, Inc.
+Accounting Manager at RxBenefits, Inc.
+VP of Accounting at TicketBiscuit, LLC</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Darryl R. Talley, CPA, P.C.</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/aristeadimitropoulou/</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAVJoZ4BRTfh4XaAvxRuqcj7Bll0f6whGC0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rene</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cuartero</t>
+          <t>Troncale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rene Cuartero</t>
+          <t>Joseph Troncale</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Co-Founder/CEO of AHG Lab | Building, investing, and accelerating innovation and founders in the Philippines, Southeast Asia, and beyond! | Collaborative Systems Change Believer</t>
+          <t>CPA, CMA | Consulting CPA (Part-Time)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Chapter President at Lions Clubs International</t>
+          <t>Joseph Troncale, CPA, CMA at Self Employed Feb 2022–Present 3 yrs 8 mos</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>🌱 I’ve always been drawn to the early stage, where vision meets uncertainty, and where the right support and infrastructure can make all the difference. Whether in my early development work in financial inclusion and youth economic empowerment, or now accelerating innovation and growth through AHG Lab with founders and startups — my mission has remained the same: to build the kind of infrastructure that gives bold ideas a real shot at lasting impact.
-As Co-Founder and CEO of AHG Lab, we built a venture studio grounded in a core belief: founders and innovation need infrastructure. We co-build with founders — providing capital, operational depth, and a networked ecosystem to help startups grow into sustainable, scalable ventures. So far, we've had the opportunity to partner with and grow:
-⚡️ 30+ startups and founders built and backed by the studio's ecosystem
-💰 $10M+ capital raised and deployed by and in the AHG platform
-🚀 5 service ventures launched to support founders and innovators
-🤝 Hands-on venture-building from ideation to scale
-💡 A sector-agnostic, founder-first approach
-In this journey, I bring a strong foundation in corporate financial strategy, global operations scaling, and ecosystem-building, which translates strategy into execution and financial clarity into plans. Core capabilities:
-🏦 Deal structuring, fundraising strategy, and financial modeling
-🌐 Global operations scaling, strategic planning, and cross-border operations
-🗒️ Seasoned in long-term financial leadership and P&amp;L management
-Beyond venture-building, I'm passionate about contributing to shaping a more inclusive, innovation-driven ecosystem through national and regional work:
-➛ DOST-TAPI SAGE Council – supporting science and technology innovations for commercialization
-➛ Sinigang Valley Association – advancing startup advocacy and community-led support
-➛ Imaginable Impact/FoundHer – promoting inclusive, women-led entrepreneurship and innovation
-I believe meaningful innovation happens when founders, institutions, and communities align under a shared mission: turning ideas into real solutions that scale. That’s what drives me: building the systems and collaborative platforms that give bold ideas the support they need to go the distance.</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Metro Manila</t>
-        </is>
-      </c>
+          <t>Accounting, tax, and other professional services provided on a consulting basis to local accounting firms and small private businesses.
+Accounting, tax, and other professional services provided on a consulting basis to local accounting firms and small private businesses.
+Accounting, tax, and other professional services provided on a consulting basis to local accounting firms and small private businesses.
+Accounting, tax, and other professional services provided on a consulting basis to local accounting firms and small private businesses.
+Highly skilled and versatile accounting and financial professional with over 40 years of experience in accounting; financial management; financial planning &amp; analysis; accounting systems design, selection &amp; implementation; financial auditing; tax planning &amp; compliance; small business consulting, and accounting software consulting.
+Employers and clients are typically privately-held SMEs in a wide variety of industries including public accounting, business services, software development, IT consulting &amp; services, nonprofits, and construction.
+Show less</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Chapter President at Lions Clubs International
-Provincial Lead - Roving Team at Philippine Commission on Elections -- PPCRV</t>
+          <t>Joseph Troncale, CPA, CMA at Self Employed
+CFO at Simpson Plastering, LLC
+Controller at RWDSU Benefit &amp; Pension Funds
+Controller at La-Z-Boy Furniture Galleries
+Supervising Senior Accountant at Carr, Riggs &amp; Ingram, LLC</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Lions Clubs International</t>
+          <t>Self Employed</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/33854/</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>https://www.lionsclubs.org/en/start-our-approach/club-locator</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Lions meet the needs of our local communities and the world. Over 1.4 million people in 210 countries and geographic areas conduct vision and health screenings, build parks, support eye hospitals, award scholarships, assist youth, provide help in time of disaster and much more.</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/sales/company/33200573</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/renecuartero/</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAKMaPwB-nPgnlwPEh02Tq3TAXBBSJkrwPY</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Roger</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Schmid</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Thomas Schmid</t>
+          <t>Roger Jackson</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Chief Financial Officer at Cushman &amp; Wakefield Germany</t>
+          <t>Certified Public Accountant</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Columbia Business School at Executive Education, Leading Strategic Growth and Change (Jun 2023 - Jun 2023)</t>
+          <t>Certified Public Accountant at Jackson Howard &amp; Whatley Jun 2021–Present 4 yrs 4 mos</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Leading the Finance function for Syngenta Germany, Austria and Switzerland. Delivering value added information to steer the business and improve profitability whilst ensuring adherence with accounting standards and tax matters. Overseeing Credit Management, Collection, Accounts Payable and remaining finance functions. Participating in strategic and tactical plans in supporting stakeholders and business targets. I finished the Financial Management Graduate Program of Syngenta (Oct15) and hold a professional qualification as a Chartered Global Management Accountant (CIMA) as well as a master &amp; bachelor degree in economics.</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Frankfurt Rhine-Main Metropolitan Area</t>
-        </is>
-      </c>
+          <t>Licensed Certified Public Accountant with over 27 years of public and corporate accounting experience. I have worked in many different financial related disciplines including tax, audit, corporate accounting, budgeting, Sarbanes-Oxley compliance, metrics &amp; measurements, and forecasting. I have held positions in fortune 500 companies but also privately held companies that had revenue between 20 and 70+ million dollars.
+Specialties:
+Service Industry
+Construction and Design Industry
+Financial Management
+Organizational Operations
+Budgeting &amp; Forecasting
+Job Costing
+Percentage Completed Accounting
+Show less</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Columbia Business School at Executive Education, Leading Strategic Growth and Change (Jun 2023 - Jun 2023)
-Chartered Institute of Management Accountants (CIMA) at Professional Qualification, Management and Accounting (2013 - 2015)</t>
+          <t>Certified Public Accountant at Jackson Howard &amp; Whatley
+Chief Financial Officer at Highland Roofing Company
+Chief Financial Officer at Lightfoot, Franklin &amp; White, LLC
+CFO at Bradford Building Company, Inc
+Director of Finance at Emageon</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Columbia Business School</t>
+          <t>Jackson Howard &amp; Whatley</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/2625/</t>
+          <t>https://www.linkedin.com/sales/company/5978248</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>http://www8.gsb.columbia.edu/</t>
+          <t>http://www.jhwcpas.com/</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Columbia Business School is at the very center of business, pioneering practice and educating leaders through access to dynamic, real-world practitioners.</t>
+          <t>Since the 1970s, Jackson Howard &amp; Whatley has been a trusted partner for individuals and businesses in Vestavia Hills, Alabama. Located at 729 Chestnut Street, we are dedicated to providing thoughtful, reliable financial guidance that stands the test of time. From tax preparation to strategic financial planning, we deliver personalized solutions with integrity, expertise, and a personal touch—building a legacy of excellence for almost 50 years.</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/thomas-schmid-5a608649/</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAABwQAABccAHaFYJ5R7v6DDApsUOykk6nlM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ann</t>
+          <t>Lea</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Drummie</t>
+          <t>Carwie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ann Drummie</t>
+          <t>Lea Carwie</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>I help professionals get moving in their career | Coach, Facilitator, Author | former engineer, architect, project manager</t>
+          <t>Tax Manager and Quickbooks Proadvisor</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>I help professionals get moving in their career | Coach, Facilitator, Author | former engineer, architect, project manager</t>
+          <t>Certified Public Accountant at James S Snow &amp; Associates Oct 2006–Present 19 yrs</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>I'm a former engineer, architect, and project manager, who helps other AEC professionals get moving in their career. 
-Find your career path. Own the room. Work with a certified coach.
-Career Coaching: If you are wondering what's next on your career path, we'll reframe some aspects of your current job and promotion opportunities and/or articulate what you want in a new job and how to connect with it.
-Leadership Coaching: If you are wondering why you aren't as effective anymore as a team leader with the same or a new team or at a new level, we'll expand specific competencies to feel more energized, influential, and impactful.
-Three steps:
-1. Schedule a chat. I can get to know you and recommend a specific coaching program. It's confidential and commitment free.
-2. Do a series of 1:1 sessions.
-3. Celebrate meaningful change in your work life.
-My clients are often in technical services industries like engineers, architects, lawyers, auditors, accountants, and administrators.
-Looking forward to chatting with you!</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Ottawa, Ontario, Canada</t>
-        </is>
-      </c>
+          <t>Quickbooks Proadvisor. Preparing financial statements, compilations and reviews. Completing and reviewing tax returns including 1040, 1041, 1065, 1120, 1120S, 990, 990PF, 706 and any corresponding state returns.
+Quickbooks Proadvisor. Preparing financial statements, compilations and reviews. Completing and reviewing tax returns including 1040, 1041, 1065, 1120, 1120S, 990, 990PF, 706 and any corresponding state returns.
+Training Supervisor, Financial Analyst, Billing Supervisor, Senior Accountant, Internal Auditor
+Staff Auditor for large public companies
+Quickbooks Proadvisor. Preparing financial statements, compilations and reviews. Completing and reviewing tax returns including 1040, 1041, 1065, 1120, 1120S, 990, 990PF, 706 and any corresponding state returns.
+Quickbooks Proadvisor. Preparing financial statements, compilations and reviews. Completing and reviewing tax returns including 1040, 1041, 1065, 1120, 1120S, 990, 990PF, 706 and any corresponding state returns.
+Training Supervisor, Financial Analyst, Billing Supervisor, Senior Accountant, Internal Auditor
+Staff Auditor for large public companies</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Certified Public Accountant at James S Snow &amp; Associates
+Tax Manager at DiPiazza, LaRocca, Heeter &amp; Co., LLC
+Accountant at Vulcan Materials Company
+Staff Accountant at KPMG US</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>James S Snow &amp; Associates</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/anndrummie/</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAABYZggABiKePgPe01clparCNDj3uQtJjLK4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lola</t>
+          <t>Hugh</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kramer</t>
+          <t>Anthony Nash, Jr.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lola Kramer</t>
+          <t>Hugh Anthony Nash, Jr.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Clerical Assistant at State of Indiana</t>
+          <t>CPA - Tax, Accounting, and Business Consulting</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Clerical Assistant at State of Indiana</t>
+          <t>Certified Public Accountant | Consultant at Self-employed Jan 2024–Present 1 yr 9 mos</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Customer Service Strategy</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Salem, Indiana, United States</t>
-        </is>
-      </c>
+          <t>Freelance contractor assisting accounting firms and companies with year-end accounting, tax returns and ad hoc projects. Available for US remote, hybrid or local work between Birmingham, Alabama and Nashville, Tennessee. Permanent employment sought.
+Freelance contractor assisting accounting firms and companies with year-end accounting, tax returns and ad hoc projects. Available for US remote, hybrid or local work between Birmingham, Alabama and Nashville, Tennessee. Permanent employment sought.
+Separated in order to maintain professional integrity after discovering irregularities.
+Taylor Chandler, CPA's &amp; Consultants provides tax, accounting, audit, and operational services to individuals and businesses. The firm operates offices in Alabama, Georgia and Florida. We leverage technology to serve clients broadly and conveniently.
+Freelance contractor assisting accounting firms and companies with year-end accounting, tax returns and ad hoc projects. Available for US remote, hybrid or local work between Birmingham, Alabama and Nashville, Tennessee. Permanent employment sought.
+Freelance contractor assisting accounting firms and companies with year-end accounting, tax returns and ad hoc projects. Available for US remote, hybrid or local work between Birmingham, Alabama and Nashville, Tennessee. Permanent employment sought.
+Separated in order to maintain professional integrity after discovering irregularities.
+Taylor Chandler, CPA's &amp; Consultants provides tax, accounting, audit, and operational services to individuals and businesses. The firm operates offices in Alabama, Georgia and Florida. We leverage technology to serve clients broadly and conveniently.
+Software Utilization
+CS UltraTax CS Accounting CS Fixed Assets Intuit Lacerte Tax ProSeries Tax QuickBooks – Online QuickBooks – Desktop Enterprise CCH ProSystem Fx Tax Microsoft Dynamics GP – ERP Timberline - ERP Great Plains Dynamics Great Plains Accounting GoFileRoom &amp; Workflows MAS 90 – ERP GoSystem Audit Macola ERP Tax/Law Research Software RIA CCH LexisNexis MS Office Excel Word Outlook
+Industry Experience – Direct or Public Accounting
+Public Accounting Branch Banking &amp; Holding Company Multi-State Chain Retail Multi-State Construction Manufacturing Funeral Equipment Dealership Repairs Country Clubs Technical Services Surface Mining Law Offices Trucking &amp; Transportation Distributorships Software Developer Food &amp; Beverage Beer Distributorship Automotive Subcontractor General Contractor Physicians Dental Clinics Skilled Nursing Facilities Agriculture Retail Product Service Company Medical Equipment Leasing Realtors Property Management
+Skills &amp; Experience:
+Individual Taxes Business Taxes Business Consulting Problem Solving Banking &amp; Loans Percentage of Completion Business Turnaround Construction Management Financial Audits Insurance Audits IRS Tax Audits Payroll Tax Audits Internal Audits Business Operations Customer Service Marketing Financial Reporting Insurance/Risk Management Process Payrolls Review Financial Data Process Tax Returns Review Tax Returns Client Contact Negotiation Tax Notices Compliance Tax Strategy Accounting Financial Statement Reviews Budgeting Planning Business Strategy Investigations Forensic Audit Hiring/Terminations Interviewing GAAP Internal Revenue Code 1095-C Audit &amp; Appeal IRS Information Returns Process Sales Tax Cash Management / Treasury
+Coaching Training Accounts Payable Accounts Receivable Fixed Assets
+Business Plan Loan Applications Licenses Business Records
+Human Resources Contract Review Inventory Control Job Costs/Budgets Analytical Review Variance Analysis Cost Containment Business Infrastructure Business Mergers Sale of Business Business Acquisition Vendor Selection &amp; Negotiation Due Diligence Fraud Project Management Data Mining &amp; Analysis Mineral Royalties Legal Management Vendor Relations Collections Credit
+Show less</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Certified Public Accountant | Consultant at Self-employed
+Certified Public Accountant &amp; Business Advisor at JMT CPA
+Corporate Controller at Unnamed Companies - Manufacturing &amp; Real Estate
+CPA and Consultant/Tax Manager at TaylorChandler CPAs
+Chief Financial Officer at Unnamed Companies - Construction Development, Real Estate &amp; Subcontracting</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/lola-kramer-b6664530/</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAASz3C0B-2fXLKs43ovgarXmdRXtRhavEdM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RAVI</t>
+          <t>Andy</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VS</t>
+          <t>Parker</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RAVI VS</t>
+          <t>Andy Parker</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Foresight Strategist | Coaching Boards &amp; CEOs to Think Nonlinearly &amp; Lead What’s Next | Strategic AI Futures | Future-Fit Leadership | Mentoring Future-Ready Minds | Impact: 1M+ People, 15K+ Orgs, 54 Countries</t>
+          <t>CPA, Partner at PILLAR3, LLC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Foresight Strategist | Coaching Boards &amp; CEOs to Think Nonlinearly &amp; Lead What’s Next | Strategic AI Futures | Future-Fit Leadership | Mentoring Future-Ready Minds | Impact: 1M+ People, 15K+ Orgs, 54 Countries</t>
+          <t>CPA, Partner at PILLAR3, LLC Oct 2013–Present 12 yrs</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>🔮 "𝐈 𝐝𝐨𝐧’𝐭 𝐜𝐨𝐧𝐧𝐞𝐜𝐭 𝐝𝐨𝐭𝐬 — 𝐈 𝐫𝐞𝐜𝐚𝐥𝐢𝐛𝐫𝐚𝐭𝐞 𝐝𝐢𝐫𝐞𝐜𝐭𝐢𝐨𝐧 𝐟𝐨𝐫 𝐭𝐡𝐨𝐬𝐞 𝐞𝐱𝐩𝐞𝐜𝐭𝐞𝐝 𝐭𝐨 𝐥𝐞𝐚𝐝 𝐭𝐡𝐞 𝐮𝐧𝐤𝐧𝐨𝐰𝐧."
-I’m Ravi — 𝐚 𝐛𝐨𝐚𝐫𝐝 𝐚𝐧𝐝 𝐂𝐄𝐎 𝐚𝐝𝐯𝐢𝐬𝐨𝐫 guiding leadership through 𝐀𝐈 𝐠𝐨𝐯𝐞𝐫𝐧𝐚𝐧𝐜𝐞, 𝐬𝐭𝐫𝐚𝐭𝐞𝐠𝐢𝐜 𝐟𝐨𝐫𝐞𝐬𝐢𝐠𝐡𝐭, and 𝐧𝐨𝐧𝐥𝐢𝐧𝐞𝐚𝐫 𝐝𝐞𝐜𝐢𝐬𝐢𝐨𝐧 𝐢𝐧𝐭𝐞𝐥𝐥𝐢𝐠𝐞𝐧𝐜𝐞.
-A rare blend of 𝐟𝐨𝐫𝐞𝐬𝐢𝐠𝐡𝐭 𝐬𝐭𝐫𝐚𝐭𝐞𝐠𝐢𝐬𝐭, 𝐦𝐞𝐧𝐭𝐨𝐫, 𝐚𝐧𝐝 𝐩𝐫𝐨𝐯𝐨𝐜𝐚𝐭𝐞𝐮𝐫, I help top leaders move from reactive governance to 𝐟𝐮𝐭𝐮𝐫𝐞-𝐟𝐢𝐭 𝐥𝐞𝐚𝐝𝐞𝐫𝐬𝐡𝐢𝐩—the kind that doesn’t just survive complexity but reshapes it.
-Most still plan with playbooks.
-I equip you to lead 𝐰𝐡𝐚𝐭’𝐬 𝐧𝐞𝐱𝐭, before it announces itself.
-🔹 𝐖𝐡𝐚𝐭 𝐈 𝐃𝐨:
-𝐈 𝐜𝐨𝐚𝐜𝐡 𝐛𝐨𝐚𝐫𝐝𝐬 𝐚𝐧𝐝 𝐂𝐄𝐎𝐬 to challenge assumptions, lead beyond lagging indicators, and adopt 𝐀𝐈 + 𝐟𝐨𝐫𝐞𝐬𝐢𝐠𝐡𝐭 𝐠𝐨𝐯𝐞𝐫𝐧𝐚𝐧𝐜𝐞 models that enable long-term viability—not just short-term wins.
-I don’t offer convenience thinking.
-I design the uncomfortable clarity the future demands.
-🔹 𝐖𝐡𝐞𝐫𝐞 𝐈 𝐎𝐩𝐞𝐫𝐚𝐭𝐞:
-Across 54 countries, I’ve helped 15K+ organizations and 1M+ people break linear traps and embrace strategic disruption—from policymaking in Africa to economic diagnostics in ASEAN, and AI foresight workshops in the Middle East.
-🔹 𝐖𝐡𝐚𝐭 𝐌𝐚𝐤𝐞𝐬 𝐌𝐞 𝐃𝐢𝐟𝐟𝐞𝐫𝐞𝐧𝐭:
-1. I don’t “transform organizations”—I 𝐟𝐫𝐚𝐦𝐞 𝐝𝐞𝐜𝐢𝐬𝐢𝐨𝐧 𝐥𝐚𝐧𝐝𝐬𝐜𝐚𝐩𝐞𝐬 before leaders get blindsided.
-2. I don’t just mentor talent—I 𝐟𝐮𝐭𝐮𝐫𝐞-𝐫𝐞𝐚𝐝𝐲 𝐦𝐢𝐧𝐝𝐬 to thrive in collapsing models.
-3. I don’t give answers—I design the right 𝐪𝐮𝐞𝐬𝐭𝐢𝐨𝐧𝐬.
-4. And I don’t train for resilience—I build capacity for 𝐫𝐞𝐠𝐞𝐧𝐞𝐫𝐚𝐭𝐢𝐯𝐞 𝐞𝐦𝐞𝐫𝐠𝐞𝐧𝐜𝐞.
-“𝐈’𝐦 𝐧𝐨𝐭 𝐡𝐞𝐫𝐞 𝐭𝐨 𝐩𝐫𝐞𝐝𝐢𝐜𝐭 𝐭𝐡𝐞 𝐟𝐮𝐭𝐮𝐫𝐞 — 𝐈’𝐦 𝐡𝐞𝐫𝐞 𝐭𝐨 𝐩𝐫𝐨𝐯𝐨𝐤𝐞 𝐢𝐭.”
-If you're a board, CEO, or policymaker sensing that what got us here won’t take us forward—
-Let’s redraw what leadership means in a nonlinear world.
-Because the future is already negotiating.
-And so should you.</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Petaling Jaya, Selangor, Malaysia</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>vsravi@invictusleader.com</t>
-        </is>
-      </c>
+          <t>Founder/owner of outsourced controller/CFO accounting firm serving small and medium sized businesses with a variety of client accounting services.
+Founder, owner/operator at Spotted Tail Outdoors - provider of custom reservation management software and business solutions to the outdoor industry
+Founder/owner of outsourced controller/CFO accounting firm serving small and medium sized businesses with a variety of client accounting services.
+Founder, owner/operator at Spotted Tail Outdoors - provider of custom reservation management software and business solutions to the outdoor industry</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CPA, Partner at PILLAR3, LLC
+Owner at Spotted Tail Outdoors
+Staff Accountant at Parker Gill Eisen Stevenson, PC
+Tax Accountant at Arlington Family Offices
+Fly Fishing Guide at Shallow Water Expeditions</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>PILLAR3, LLC</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/sales/company/10126762</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>http://www.pillar3llc.com/</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>PILLAR3 offers a variety of accounting, consulting, and media services supporting small businesses and their owners. From planning and strategy to management and compliance, we take a balanced approach to each project- blending business acumen, professionalism, and an entrepreneurial spirit to create the synergy and quality of service our clients deserve. At PILLAR3, we have a thing for helping small businesses and entrepreneurs, and pretty much anyone that wears a backpack full of dreams. We believe in strong accounting foundations, connected to smooth processes and scalable systems that come together to offer insight into the pulse of a business. We partner with our clients to help structure and manage those details so they can focus on what they do best.</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/vsravi28/</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAYtw1QBA0r36QyUJEKfS0cy-hYBQi1Ey68</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Danny</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Evans</t>
+          <t>McCullars</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>James Evans</t>
+          <t>Danny McCullars</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CFO at Holo</t>
+          <t>CPA - Self Employed</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CFO at Holo Jun 2024–Present 1 yr 3 mos</t>
+          <t>Certified Public Accountant at American Institute of Certified Public Accountants (AICPA) May 2014–Present 11 yrs 5 mos</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Leading finance at a growth stage proptech
-Leading finance at a growth stage proptech
-Advising an early stage parking technology company through their pre seed and seed stages.
-Led finance at a growth stage staffing tech.
-Raised KSA expansion round.
-Led finance at an early stage Fintech.
-Raised Series A ($33m)
-Led FP&amp;A at early stage fintech.
-Raised pre Series A ($12m)
-In my tenure at Kentech Group as an FP&amp;A Manager, I spearheaded the financial planning and analysis division, significantly enhancing forecasting accuracy, implementing cutting-edge data visualization tools, and leading substantial cost-saving initiatives. My role was pivotal in advancing the company's strategic planning, operational efficiency, and data-driven decision-making capabilities.
-Leading finance at a growth stage proptech
-Leading finance at a growth stage proptech
-Advising an early stage parking technology company through their pre seed and seed stages.
-Led finance at a growth stage staffing tech.
-Raised KSA expansion round.
-Led finance at an early stage Fintech.
-Raised Series A ($33m)
-Led FP&amp;A at early stage fintech.
-Raised pre Series A ($12m)
-In my tenure at Kentech Group as an FP&amp;A Manager, I spearheaded the financial planning and analysis division, significantly enhancing forecasting accuracy, implementing cutting-edge data visualization tools, and leading substantial cost-saving initiatives. My role was pivotal in advancing the company's strategic planning, operational efficiency, and data-driven decision-making capabilities.
-CFO at Holo | MENA Startup Advocate
-I’m that guy who really loves startups and has a vision for the MENA region to shine on the global stage.
-Growing up in MENA, I’ve always dreamed of seeing our region’s startups make a massive international impact. I’m dedicated to turning that dream into reality through early-stage company management and fundraising.
-With over a decade of finance experience and a passion for scaling high-potential ventures, I’m an ACCA member and finance professional committed to transforming the MENA startup ecosystem. My journey began with a BA Honours in Accounting and Finance from the University of Middlesex and an MSc in Finance from the University of Aberdeen Business School.
-Starting out at PwC, I built a strong foundation in audit, financial modeling, and data analytics, with expertise in Excel VBA automation and client relationship management.
-Currently, as the Chief Financial Officer at Holo, a pioneering Proptech company, I oversee everything from financial strategy to investor relations. My role here reflects my commitment to excellence and strategic decision-making in a dynamic growth-stage environment.
-I firmly believe in the ripple effect of support, where helping one founder can uplift others and create a more vibrant ecosystem. It doesn’t have to be a competition; there’s ample financial capacity in the market, and it’s about harnessing our collective strength rather than vying for resources.
-Looking ahead 10-20 years, I want to reflect not just on financial gains but on being part of a transformative movement that shapes the future of MENA startups.
-If you’re passionate about transforming the startup landscape and building a lasting impact, let’s connect.
-Show less</t>
+          <t>Finance, accounting, risk management, internal controls. Possess diverse skills in compliance, grants &amp; fraud and abuse. Significant work in health care and government sectors. Assisted in creation of non-profit representing retail pharmacies. Recognize the utility o
+Scale according to the size of project needs or employment opportunities. Relating to the need to address fraud and abuse, the facts are compelling. In 2014: 5% of revenues worldwide disappear to occupational fraud, across all sectors, costing gross world product $3.7 trillion. More than 22% of losses involve greater than $1 million per event. Old fashioned oral tips by co-workers, customers, or other stakeholders reported fraud in 40
+Candidate for Alabama Senate District 12. Developed relationships with hundreds, met and spoke with thousands. Outcome of November election was unsuccessful.
+Finance Director. Accounting, Financial Statement Preparation, Utility Billing, Property Tax Assessments &amp; Collections, G/L, Fund Accounting - Georgia Law.
+All facets of municipal finance as Assistant Finance Director (2002 -2006) and Finance Director (2006-2014). Integrated Governmental Accounting Statements Board #34, the new accounting model for state and local governments, while participating in all facets of finance encompassing diverse city reporting. Responsible for $40 million municipal budget compliance, working with multiple departments. Created Committee on Spons
+Governmental and trade relations including three years representing interests of trade association advocating retail and infusion pharmacy in Alabama, Mississippi, and the panhandle of Florida. Maintained practice of public accounting through this arrangement, including working with technology. Managed group health insurance plan whereby over three hundred stores and their employees participated. Worked with the Gove
+Finance, accounting, risk management, internal controls. Possess diverse skills in compliance, grants &amp; fraud and abuse. Significant work in health care and government sectors. Assisted in creation of non-profit representing retail pharmacies. Recognize the utility o
+Finance, accounting, risk management, internal controls. Possess diverse skills in compliance, grants &amp; fraud and abuse. Significant work in health care and government sectors. Assisted in creation of non-profit representing retail pharmacies. Recognize the utility o
+Scale according to the size of project needs or employment opportunities. Relating to the need to address fraud and abuse, the facts are compelling. In 2014: 5% of revenues worldwide disappear to occupational fraud, across all sectors, costing gross world product $3.7 trillion. More than 22% of losses involve greater than $1 million per event. Old fashioned oral tips by co-workers, customers, or other stakeholders reported fraud in 40
+Candidate for Alabama Senate District 12. Developed relationships with hundreds, met and spoke with thousands. Outcome of November election was unsuccessful.
+Finance Director. Accounting, Financial Statement Preparation, Utility Billing, Property Tax Assessments &amp; Collections, G/L, Fund Accounting - Georgia Law.
+All facets of municipal finance as Assistant Finance Director (2002 -2006) and Finance Director (2006-2014). Integrated Governmental Accounting Statements Board #34, the new accounting model for state and local governments, while participating in all facets of finance encompassing diverse city reporting. Responsible for $40 million municipal budget compliance, working with multiple departments. Created Committee on Spons
+Governmental and trade relations including three years representing interests of trade association advocating retail and infusion pharmacy in Alabama, Mississippi, and the panhandle of Florida. Maintained practice of public accounting through this arrangement, including working with technology. Managed group health insurance plan whereby over three hundred stores and their employees participated. Worked with the Gove
+Finance, accounting, risk management, internal controls. Possess diverse skills in compliance, grants &amp; fraud and abuse. Significant work in health care and government sectors. Assisted in creation of non-profit representing retail pharmacies. Recognize the utility o</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -1209,735 +1210,613 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>CFO at Holo (Jun 2024–Present · 1 yr 3 mos) [Dubai, United Arab Emirates]
-Advisor at SpareBay (Feb 2024–Mar 2025 · 1 yr 2 mos) [Dubai, United Arab Emirates]
-Group Financial Analyst at Kentech Group (Apr 2018–Jul 2021 · 3 yrs 4 mos) [Dubai]</t>
+          <t>Certified Public Accountant at American Institute of Certified Public Accountants (AICPA)
+Candidate AL Senate 12, Consulting CPA at Alabama State Senate
+Director of Finance at City of Powder Springs
+CFO at City of Anniston
+Independent Consultant, Small Business-Government &amp; Public Relations. at Alabama Independent Drugstore Association</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Holo</t>
+          <t>American Institute of Certified Public Accountants (AICPA)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/14663178</t>
+          <t>https://www.linkedin.com/sales/company/15104197</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>http://www.useholo.com/</t>
+          <t>https://www.aicpa-cima.com/</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Holo is a fintech company on a mission to make home buying effortless. Our all-in-one digital platform helps buyers secure the best mortgage—fast, free, and hassle-free. Apply online in minutes, anytime, from any device. 🔹 Home Buyers – Get the best mortgage deals with zero stress. 🔹 Agents – Earn with The HUB and connect with pre-approved buyers. Making homeownership simple, seamless, and smarter.</t>
+          <t>The American Institute of Certified Public Accountants (AICPA) is the national professional organization of Certified Public Accountants (CPAs) in the United States, with more than 428,000 members in 130 countries. Founded in 1887 as the American Association of Public Accountants (AAPA), the organization sets ethical standards and U.S. auditing standards. It also develops and grades the Uniform CPA Examination. The AICPA maintains offices in New York City; Washington, DC; Durham, NC; and Ewing, NJ.</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAnajukBHKDvYtZcW9O5evE5Ds6ELR2eIU4</t>
+          <t>https://www.linkedin.com/sales/lead/ACwAAAarRmoBKJ83PDWp2ViWggF7kGMAIOn6a-4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Helen</t>
+          <t>Isabella</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Astle</t>
+          <t>Doppler</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Helen Astle</t>
+          <t>Isabella Doppler</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>f-CFO</t>
+          <t>CFO at HOLO-LIGHT</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>f-CFO and Co-Founder at theFinanceStack Jan 2024–Present 1 yr 8 mos</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>f-CFO and business advisor working with e-commerce and retail clients.
-f-CFO and business advisor working with e-commerce and retail clients.
-f-CFO and business advisor working with e-commerce and retail clients.
-f-CFO and business advisor working with e-commerce and retail clients.</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>CFO at HOLO-LIGHT</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Innsbruck, Tyrol, Austria</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>f-CFO and Co-Founder at theFinanceStack (Jan 2024–Present · 1 yr 8 mos)
-f-CFO at Flow CFO (Jan 2022–Present · 3 yrs 8 mos) [Whistler, British Columbia, Canada]
-CFO at ecologyst (Apr 2020–Feb 2022 · 1 yr 11 mos) [Whistler, British Columbia, Canada]
-Founder at Latitude.life (Feb 2019–Dec 2020 · 1 yr 11 mos) [London, United Kingdom]
-Finance Director at Planks Clothing Ltd. (Jan 2017–Dec 2018 · 2 yrs) [Reading, United Kingdom]</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>theFinanceStack</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/78403185</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>http://www.thefinancestack.com/</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>At theFinanceStack, we provide financial peace of mind for growth-minded founders. With decades of experience and innovative financial solutions, we offer exceptional CFO services and connect you with a team of seasoned fractional financial professionals, including CFOs, FP&amp;As (Analysts), Controllers and Senior Accountants. Our mission is to transform the financial landscape for Scaleups and SMEs by delivering a comprehensive suite of services designed to drive growth, enhance operational efficiency, and provide strategic financial insights. We understand that every business is unique, so we offer customized solutions tailored to your specific needs. Empowering businesses with clarity and stability, we help you navigate complex financial challenges confidently. Leveraging our deep industry knowledge and advanced financial tools, we streamline operations, optimize financial performance, and help you achieve your business goals. With theFinanceStack, you get a full financial team for significantly less than the cost of a single top-tier CFO.</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAPrja4BJNUvPJ4gES1fBRq_X7qTww_amo8</t>
+          <t>https://www.linkedin.com/in/isabelladoppler/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Philip</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gans</t>
+          <t>Wereda</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Philip Gans</t>
+          <t>Robert Wereda</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Stack CFO, theFinanceStack</t>
+          <t>CFO at HOLO vectors sp. z o.o.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Stack CFO at theFinanceStack Mar 2022–Present 3 yrs 6 mos</t>
+          <t>Strategia biznesowa</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Stack CFO at theFinanceStack (Mar 2022–Present · 3 yrs 6 mos)
-Fractional CFO at Avato Systems (Mar 2022–Present · 3 yrs 6 mos) [Victoria, British Columbia, Canada]
-VP Finance at EncoreFX (Nov 2014–Mar 2022 · 7 yrs 5 mos)
-Business Consultant at Philip Gans (Aug 2012–Nov 2014 · 2 yrs 4 mos)
-Director, Finance at Western Union Business Solutions (2009–2012 · 3 yrs) [Victoria, Canada]</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>theFinanceStack</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/78403185</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>http://www.thefinancestack.com/</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>At theFinanceStack, we provide financial peace of mind for growth-minded founders. With decades of experience and innovative financial solutions, we offer exceptional CFO services and connect you with a team of seasoned fractional financial professionals, including CFOs, FP&amp;As (Analysts), Controllers and Senior Accountants. Our mission is to transform the financial landscape for Scaleups and SMEs by delivering a comprehensive suite of services designed to drive growth, enhance operational efficiency, and provide strategic financial insights. We understand that every business is unique, so we offer customized solutions tailored to your specific needs. Empowering businesses with clarity and stability, we help you navigate complex financial challenges confidently. Leveraging our deep industry knowledge and advanced financial tools, we streamline operations, optimize financial performance, and help you achieve your business goals. With theFinanceStack, you get a full financial team for significantly less than the cost of a single top-tier CFO.</t>
-        </is>
-      </c>
+          <t>Strategia biznesowa
+Rozwój firmy</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAvrO_cBOkKD7FrlweSx3sAfW201Cip3bJ8</t>
+          <t>https://www.linkedin.com/in/robert-wereda-90a692b1/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aron</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Funk, CPA</t>
+          <t>Oberlechner</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Aron Funk, CPA</t>
+          <t>Michael Oberlechner</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fractional Director of Finance at theFinanceStack</t>
+          <t>GF MO Immobilien, Bereichsleitung RIEDERBAU Immobilien</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Fractional Director of Finance at theFinanceStack Oct 2023–Present 1 yr 11 mos</t>
+          <t>GF MO Immobilien, Bereichsleitung RIEDERBAU Immobilien</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Fractional Director of Finance at theFinanceStack (Oct 2023–Present · 1 yr 11 mos) [Victoria, British Columbia, Canada]
-CFE marker at Chartered Professional Accountants of Canada (CPA Canada) (Oct 2021–Oct 2023 · 2 yrs 1 mo)
-CFE prep program mentor &amp; marker at CFE Success Inc. (Jan 2021–Aug 2023 · 2 yrs 8 mos)
-Business Analyst, Fleet Department at Canadian Coast Guard/Garde côtière canadienne (Apr 2016–Aug 2016 · 5 mos) [Victoria, British Columbia, Canada]</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>theFinanceStack</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/78403185</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>http://www.thefinancestack.com/</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>At theFinanceStack, we provide financial peace of mind for growth-minded founders. With decades of experience and innovative financial solutions, we offer exceptional CFO services and connect you with a team of seasoned fractional financial professionals, including CFOs, FP&amp;As (Analysts), Controllers and Senior Accountants. Our mission is to transform the financial landscape for Scaleups and SMEs by delivering a comprehensive suite of services designed to drive growth, enhance operational efficiency, and provide strategic financial insights. We understand that every business is unique, so we offer customized solutions tailored to your specific needs. Empowering businesses with clarity and stability, we help you navigate complex financial challenges confidently. Leveraging our deep industry knowledge and advanced financial tools, we streamline operations, optimize financial performance, and help you achieve your business goals. With theFinanceStack, you get a full financial team for significantly less than the cost of a single top-tier CFO.</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAABeVOVgBn9MF8pmlk9vUZgzURuk9iCJYXWo</t>
+          <t>https://www.linkedin.com/in/michael-oberlechner-115077131/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Shelly</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Berger</t>
+          <t>Rubinstein</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Anna Berger</t>
+          <t>Shelly Rubinstein</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Founder &amp; CEO @ Trayd: Construction Payroll, HR, &amp; Compliance</t>
+          <t>Co-founder &amp; CFO at Solution Culture, Green MBA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Founder &amp; CEO at Trayd Sep 2022–Present 3 yrs</t>
+          <t>Volunteer at Keren Kayemeth Leisrael Mexico (Mar 2014 - May 2016 · 2 yrs 3 mos)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2x tech founder currently building Trayd, the all-in-one construction back office platform with payroll, HR, and compliance at its core. Learn more at buildtrayd.com.
-Founding team member (2nd FTE), supporting all company growth initiatives, including acquisition, product marketing and brand marketing.
-In my Junior Year, I brought the More Than Me Foundation to the University of Michigan campus. This organization is geared towards raising funds and awareness for young girls in Liberia who are subjected to prostitution as a means of survival. More Than Me makes sure high-risk girls are off of the streets and into school
-2x tech founder currently building Trayd, the all-in-one construction back office platform with payroll, HR, and compliance at its core. Learn more at buildtrayd.com.
-2x tech founder currently building Trayd, the all-in-one construction back office platform with payroll, HR, and compliance at its core. Learn more at buildtrayd.com.
-Founding team member (2nd FTE), supporting all company growth initiatives, including acquisition, product marketing and brand marketing.
-In my Junior Year, I brought the More Than Me Foundation to the University of Michigan campus. This organization is geared towards raising funds and awareness for young girls in Liberia who are subjected to prostitution as a means of survival. More Than Me makes sure high-risk girls are off of the streets and into school
-2x tech founder currently building Trayd, the all-in-one construction back office platform with payroll, HR, and compliance at its core. Learn more at buildtrayd.com.</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>Concept development, design and image.
+Administration and sales.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Mexico City, Mexico</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Founder &amp; CEO at Trayd (Sep 2022–Present · 3 yrs) [New York, United States]
-Director of Growth &amp; Marketing at Motto (Nov 2021–Mar 2023 · 1 yr 5 mos) [New York, United States]
-Cofounder, Head of Growth and Marketing at Curtn (Oct 2019–Nov 2021 · 2 yrs 2 mos) [New York, United States]
-Manager, Global Paid Media Strategy &amp; Planning at Marriott International (Oct 2017–Aug 2020 · 2 yrs 11 mos) [Greater New York City Area]
-Account Executive at Deutsch (May 2016–Aug 2017 · 1 yr 4 mos) [Greater New York City Area]</t>
+          <t>Volunteer at Keren Kayemeth Leisrael Mexico (Mar 2014 - May 2016 · 2 yrs 3 mos)
+Mentor and Guide at Marcha de la Vida México (Oct 2018 - May 2019 · 8 mos)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Trayd</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/93141571</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>https://www.buildtrayd.com/</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Trayd is an all-in-one construction back office operating system that has payroll and compliance at the forefront. Trayd offers a modern workforce management platform, best-in-class time-tracking tools and payroll automation to unlock Earned Wage Access on every paycheck.</t>
-        </is>
-      </c>
+          <t>Keren Kayemeth Leisrael Mexico</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAA9zCKABsx_zNdnKGFVTYpw3kgorVwAqtbU</t>
+          <t>https://www.linkedin.com/in/shelly-rubinstein-02b61816/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Edward</t>
+          <t>Julio</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Schembor</t>
+          <t>Holo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Edward Schembor</t>
+          <t>Julio Holo</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Building the future of Financial Compliance</t>
+          <t>Interim CFO at Redas</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Co-Founder &amp; CTO at Greenboard Jun 2023–Present 2 yrs 3 mos</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Building the future of Financial Compliance
-Building better compliance software at greenboard.com
-Building the future of Financial Compliance
-Leading product for Amazon Registry.
-Led an initiative across Amazon Retail and Search to improve the overall Amazon.com product discovery experience, reporting progress directly to Amazon's SVP-level leaders. Owned quarterly business reviews across multiple VP-level organizations.
-In-home, tech-enabled Dementia care.
-Computer Vision and Machine Learning
-Computer Vision and Machine Learning
-ML/Email personalization
-ML/Email personalization
-Elastic Machine Learning Group
-Building better compliance software at greenboard.com
-Building the future of Financial Compliance
-Building better compliance software at greenboard.com
-Building the future of Financial Compliance
-Leading product for Amazon Registry.
-Led an initiative across Amazon Retail and Search to improve the overall Amazon.com product discovery experience, reporting progress directly to Amazon's SVP-level leaders. Owned quarterly business reviews across multiple VP-level organizations.
-In-home, tech-enabled Dementia care.
-Computer Vision and Machine Learning
-Computer Vision and Machine Learning
-ML/Email personalization
-ML/Email personalization
-Elastic Machine Learning Group
-Building better compliance software at greenboard.com</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>Interim CFO at Redas</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>New York City Metropolitan Area</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Co-Founder &amp; CTO at Greenboard (Jun 2023–Present · 2 yrs 3 mos)
-Founder at Heron Point (Jan 2020–Jan 2021 · 1 yr 1 mo) [Greater Seattle Area]</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Greenboard</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/96613026</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>https://www.greenboard.com/</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Fintechs, private funds, and wealth managers all use Greenboard to consolidate compliance software functionality onto a single modern platform that uses AI to detect risk and reduce tedium.</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAz_eusBMdVH4penHfi2yhBGoNKtY_yReEY</t>
+          <t>https://www.linkedin.com/in/julio-holo-aa3616186/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Elizabeth</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Manier</t>
+          <t>Carter</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Josh Manier</t>
+          <t>Elizabeth Carter</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CFO &amp; Tax Advisor, Real Estate Fund Manager</t>
+          <t>CMO | Growth &amp; Revenue Strategist | Brand Builder | Board Advisor | CNN, MTV, Paramount, Cartier, Culture Trip</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CFO &amp; Tax Advisor at SJC Company dba Whole Family Financial Services Aug 2013–Present 12 yrs 1 mo</t>
+          <t>Search Marketing Final / Client: CatchaFire.org</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CFO Advisor for businesses and individuals. We help increase cash flow and net worth while managing the tax bill. Helping individual and businesses simplify admin, minimize redundencies, increase their comfort level, and maximize their forward looking financial outlook on a multi-year basis. This leads to higher net worth and more cash flow by implementing our pragmatic and detailed strategies.
-Red Rock Capital Management, LLC is a General Partner to multiple Real Estate Investment Funds which provides underwriting, portfolio analysis, financial forecasting, fund administration, quarterly reporting, and oversight of all investment activities.
-Red Rock Safeguard Fund, LP is a privately managed real estate fund for Accre
-General Partner- LemVega Capital RE Fund
-Our company provides financing for 1-4 unit investment properties around the country for new construction, fix and flip, bridge, and long term rental property financing.
-Loans available with no minimum credit score required.
-Golden Gate Enterprises, LLC- Saint Paul, MN
-Board of Directors and Investor- Technology and Marketing Company serving enterprise level customers
-CFO Advisor for businesses and individuals. We help increase cash flow and net worth while managing the tax bill. Helping individual and businesses simplify admin, minimize redundencies, increase their comfort level, and maximize their forward looking financial outlook on a multi-year basis. This leads to higher net worth and more cash flow by implementing our pragmatic and detailed strategies.
-Red Rock Capital Management, LLC is a General Partner to multiple Real Estate Investment Funds which provides underwriting, portfolio analysis, financial forecasting, fund administration, quarterly reporting, and oversight of all investment activities.
-Red Rock Safeguard Fund, LP is a privately managed real estate fund for Accre
-General Partner- LemVega Capital RE Fund
-Our company provides financing for 1-4 unit investment properties around the country for new construction, fix and flip, bridge, and long term rental property financing.
-Loans available with no minimum credit score required.
-Golden Gate Enterprises, LLC- Saint Paul, MN
-Board of Directors and Investor- Technology and Marketing Company serving enterprise level customers
-As a CFO/Tax advisor, we advise businesses and their owners to maximize their cash flow, increase asset performance, all while keeping the tax bill in line. Find out more about our unique approach and unlock the value of our 70+ years of combined experience.
-As a CFO of Syllo Solutions, my focus is on revolutionizing health insurance billing processes to enhance revenue management for healthcare providers. Our team's proprietary software has led to increased reimbursement rates and faster payments, reflecting my commitment to financial efficiency and innovation in healthcare finance.
-With extensive experience as a Fund Manager at Red Rock Capital Management, LLC, I have honed my expertise in real estate investment, providing analysis and consistent annual returns for Limited Partners. My role involves advising on alternative real estate-backed investments, ensuring principal safety, and offering attractive returns, all while reducing market volatility. I also serve as a CFO/fund advisor to a select number of private funds.
-Show less</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>Impact-driven CMO and strategic leader with a proven track record of accelerating growth for global brands and startups, including CNN, MTV, Paramount, Cartier, and Culture Trip.
+• At XLMedia, led strategic planning, market analysis, portfolio positioning, and integration planning to unlock growth opportunities and strengthen market position.
+• At Culture Trip, scaled marketing operations and built the brand from the ground up, expanding the audience from 9M to 20M monthly uniques and earning industry recognition, including nominations from the Drum Marketing Awards (Emerging Brand of the Year) and Digiday (Best Live Event: SXSW Soho in SoCo).
+• At Viacom, generated $60M+ in new digital revenue by developing and monetising strategic partnerships with leading social platforms, driving cross-channel audience engagement.
+• At MTV, transformed cultural moments into revenue, executing 200+ multi-channel campaigns with top advertisers—including a Silver Clio win for MTV Lit! x Beats #LemonDanceChallenge.
+Global expertise to drive brand innovation, audience expansion, and revenue growth through high-impact strategies across diverse industries and international markets. Energised by building and empowering high-performing teams with a player/coach leadership style that fosters collaboration and creativity. Focused on transforming businesses into market leaders and ambitious ideas into measurable results.
+STRATEGY
+• Group Strategy, Strategic Planning, Market Analysis
+• Investor Engagement, M&amp;A, Brand Partnerships
+• Employer Brand &amp; Culture Development, Change Management
+MARKETING &amp; COMMUNICATIONS
+• Brand Management, Consumer &amp; Market Research, Multi-channel Marketing, Experiential Marketing
+• Growth Marketing (incl. PPC, Paid Social, SEO, CRM, UX/CRO), Social Media, Marketing Automation &amp; Analytics
+• Strategic Communications (Consumer, Corporate, B2B, Internal, Investor)
+CONTENT STRATEGY &amp; OPERATIONS
+• Creative Direction, Design Systems, Creative Process Structuring, Media Rights Licensing
+• Campaign Development, Video Production, OTG Activation Management
+REVENUE GROWTH &amp; PARTNERSHIPS
+• Commercial Partnerships, Commercial Marketing
+• Branded Content &amp; Sponsorship, IP Monetisation, Sales Pricing &amp; Packaging
+SECTORS
+• Media, Entertainment, News, Travel, Sports &amp; iGaming, Luxury Consumer Goods</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>London Area, United Kingdom</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>CFO &amp; Tax Advisor at SJC Company dba Whole Family Financial Services (Aug 2013–Present · 12 yrs 1 mo) [Colorado Springs, Colorado, United States and Cabo San Lucas Mexico]
-Fund Manager at Red Rock Capital Management, LLC &amp; CO Fund Management, LLC (Apr 2017–Present · 8 yrs 5 mos) [Colorado Springs, Colorado Area]
-Managing Partner at LemVega Capital® (Nov 2024–Present · 10 mos) [Puerto Rico]
-President at Island View Mortgage dba Red Rock Capital (Jan 2004–Present · 21 yrs 8 mos) [Colorado Springs, Colorado Area]
-Investor, Consultant, Board Member at Various Privately Held Companies (May 2012–Present · 13 yrs 4 mos) [Nationwide]</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>SJC Company dba Whole Family Financial Services</t>
-        </is>
-      </c>
+          <t>Search Marketing Final / Client: CatchaFire.org</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAABS76wBZMl6OeAFTAKcl0mDinc3JlkeAN4</t>
+          <t>https://www.linkedin.com/in/elizabeth-a-carter/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ebrahim</t>
+          <t>Fahad</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nalwala</t>
+          <t>Khalid</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ebrahim Nalwala</t>
+          <t>Fahad Khalid</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Co-founder CRO</t>
+          <t>Web 3.0 Professional 🌐 | x-PwC 💻 | ACCA 📑 | BSc Applied Accounting 🎓</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Co-founder &amp; CRO at Work 365 Jan 2018–Present 7 yrs 8 mos</t>
+          <t>Holo Hive (Jul 2025 - Present · 3 mos) [United States · Remote]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Experienced Founder with a demonstrated history of working with cloud, software services and information technology industry. A seasoned entrepreneur and leader skilled in Business Process, Customer Relationship Management (CRM), IT Strategy, Professional Services.
-I help businesses, especially Microsoft partners, manage and scale recurring revenue.
-IOTAP is a leading Cloud Services Provider, IT Consulting and Software Services Company. We are a Microsoft Gold Certified Partner and use products and technologies like Office 365, Azure, Dynamics CRM, SharePoint to deliver solutions that create game changing opportunities for our customers.
-Experienced Founder with a demonstrated history of working with cloud, software services and information technology industry. A seasoned entrepreneur and leader skilled in Business Process, Customer Relationship Management (CRM), IT Strategy, Professional Services.
-Experienced Founder with a demonstrated history of working with cloud, software services and information technology industry. A seasoned entrepreneur and leader skilled in Business Process, Customer Relationship Management (CRM), IT Strategy, Professional Services.
-I help businesses, especially Microsoft partners, manage and scale recurring revenue.
-IOTAP is a leading Cloud Services Provider, IT Consulting and Software Services Company. We are a Microsoft Gold Certified Partner and use products and technologies like Office 365, Azure, Dynamics CRM, SharePoint to deliver solutions that create game changing opportunities for our customers.
-Experienced Founder with a demonstrated history of working with cloud, software services and information technology industry. A seasoned entrepreneur and leader skilled in Business Process, Customer Relationship Management (CRM), IT Strategy, Professional Services.</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>An ACCA with an honest and to-the-matter approach, who seeks to pursue his career in forward thinking companies. Moreover, he holds a BSc (Hons) in Applied Accounting from Oxford Brooks.
+Having an interest in Web 3.0, Data sciences and Fintech, he's always eager to learn more about emerging technologies which will be impacting our future industries.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Board Member at Al Yusr International (Jan 2022–Present · 3 yrs 8 mos)
-Technical Consultant - CRM at Onyx Software (Oct 2002–Jan 2004 · 1 yr 4 mos)
-Sr Implementation engineer at Align Technology Inc (2000–2004 · 4 yrs)
-Sr. Implementation Engineer at Invisalign (Aug 2000–Jun 2002 · 1 yr 11 mos)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>Holo Hive (Jul 2025 - Present · 3 mos) [United States · Remote]
+Co-Founder (Dec 2022 - Present · 2 yrs 10 mos)
+Partnerships Manager at Surgence (Jun 2024 - Oct 2024 · 5 mos) [Australia · Remote]
+Codup (Apr 2024 - Jul 2024 · 4 mos) [Remote]
+Career transition at Career Break (Sep 2021 - Aug 2022 · 1 yr)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Holo Hive</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/117342</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>http://www.iotap.com/</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/company/100150501/</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>IOTAP provides IT consulting and Software Services that enables companies to effectively connect, communicate and collaborate with their internal and external customers and peers groups. IOTAP is a Microsoft Gold Certified partner and provides full life cycle solutions for implementation of CRM, SharePoint Portal and Collaboration solutions, Web content management systems and Custom Application Development projects for its customers globally. IOTAP provides services and consulting for technologies like SharePoint, and Dynamics CRM. IOTAP is also a Microsoft Cloud Accelerate partner and provides end to end Office 365 implementation services. For more information, please visit www.iotap.com or write to us at marketing@iotap.com.</t>
+          <t>Holo Hive is a full-stack Web3 growth partner specializing in Go-to-Market Strategies, TGE &amp; NFT Acceleration, and Ecosystem Growth. With over 25 years in collective team experience, we empower projects at every stage, from pre-launch to sustained growth.
+Trusted by founders backed by Coinbase, a16z, Binance, Paradigm, and Xbox, we provide precise Web3-native insights for thriving in competitive global and Asia-Pacific markets. 
+With a proven track record helping brands such as The Sandbox, 0G Labs, Maplestory, Zetachain, AI Arena, Pixelmon (MON Protocol) and 100+ others, we know what it takes to succeed.</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAAwRIoBaZ6ssi48QYy2ZxMycbm6AdFvY8U</t>
+          <t>https://www.linkedin.com/in/fahad-eth/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Antonio</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ruzzelli</t>
+          <t>Vikoulov</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Antonio Ruzzelli</t>
+          <t>Alex Vikoulov</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Founder and director - Passionate about innovation, SaaS analytics, pricing strategies, energy &amp; business Intelligence for a sustainable world</t>
+          <t>Futurist | Evolutionary Cyberneticist | Philosopher of Mind | Author | Filmmaker | CEO, Editor-in-Chief @ Ecstadelic Media Group | alexvikoulov.com | ecstadelic.net</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Founder and investor at ReveniQ at RevenIQ Oct 2023–Present 1 yr 11 mos</t>
+          <t>Futurist | Evolutionary Cyberneticist | Philosopher of Mind | Author | Filmmaker | CEO, Editor-in-Chief @ Ecstadelic Media Group | alexvikoulov.com | ecstadelic.net</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Wattics offers a modular and bespoke cloud-based energy analytics platform for energy service companies, consultants and energy managers to control saving projects, sustainability reporting and energy performance contracting at large.
-Either directly or through specialised channel partners, our platform is used by
-Executive management team member overseeing product innovation, international team management, and spearheading growth initiatives beyond the United States.
-Project leader at CLARITY: Centre for Sensor technologies at University College Dublin (UCD), Interested in low-power sensor systems and wireless networking protocols with an emphasis on, energy-efficiency in buildings, carbon footprinting, network control, and appliance recognition .
-Taught a module on energy-efficient sensor systems for computer scientists
-ACM BuildSys is a selective forum for the presentation of research results on systems' issues in the area of building controls, energy management, embedded, and networked sensors. The workshop provides an ideal convergence venue for the Sensor, Building and Energy research communities to address the research challenges facing the design, deployment, use, and fundamental limits of these systems.
-Wattics offers a modular and bespoke cloud-based energy analytics platform for energy service companies, consultants and energy managers to control saving projects, sustainability reporting and energy performance contracting at large.
-Either directly or through specialised channel partners, our platform is used by
-Executive management team member overseeing product innovation, international team management, and spearheading growth initiatives beyond the United States.
-Project leader at CLARITY: Centre for Sensor technologies at University College Dublin (UCD), Interested in low-power sensor systems and wireless networking protocols with an emphasis on, energy-efficiency in buildings, carbon footprinting, network control, and appliance recognition .
-Taught a module on energy-efficient sensor systems for computer scientists
-ACM BuildSys is a selective forum for the presentation of research results on systems' issues in the area of building controls, energy management, embedded, and networked sensors. The workshop provides an ideal convergence venue for the Sensor, Building and Energy research communities to address the research challenges facing the design, deployment, use, and fundamental limits of these systems.
-Antonio Ruzzelli completed a software engineering PhD in 2008 and then founded Wattics energy analytics after a brief academic career at University College Dublin. He served as CEO for 11 years, scaled Wattics internationally and completed a successful exit of the company in 2022. After serving for a year in the executive leadership team of the owner EnergyCAP, he is starting a new startup journey and is actively investing and helping other innovative startups. He brings 15 years of technology and leadership experience with a track record of developing international teams and driving SaaS companies from conception to seven-digit recurring revenues. Ruzzelli brings a wealth of knowledge in developing company visions, attract investment, delivered strategic business directions, and leading the development of innovative software products to achieve growth and successful exit strategies.
-Antonio Ruzzelli was born in Sardinia, Italy, and currently lives with his family in Dublin, Ireland. He holds a degree in electrical engineering from the University of Ferrara in Italy, a master's degree from UTwente in the Netherlands, and a Ph.D. in computer science from University College Dublin. During his career, he has written over 20 peer-reviewed scientific articles and won two international awards for innovation in software intelligence for energy meters and IoT devices. He loves playing football, spearfishing, and hiking.
-ABOUT WATTICS
-Wattics originated at University College Dublin, founded by a dedicated group of developers who were enthusiastic about applying data analytics to energy management and sustainability. The inception of Wattics was driven by a strong conviction that energy managers, sustainability officers, and energy consultants play a pivotal role in aiding business consumers to minimize unnecessary power consumption and address the global carbon footprint.
-In 2017, the company transitioned to a Software as a Service (SaaS) model, marking the beginning of a remarkable growth trajectory that expanded its subscriber base to over 50 countries. Wattics has revolutionised the way international businesses approach energy consumption by introducing cloud-based energy analytics. This innovative approach has not only shaped a transformative experience but has also provided valuable assistance to thousands of companies in optimising their energy management practices.
-Show less</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>PR | News | Digital Media | Publishing</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Burlingame, California, United States</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Founder and investor at ReveniQ at RevenIQ (Oct 2023–Present · 1 yr 11 mos) [Dublin, County Dublin, Ireland]
-CEO and co-founder at Wattics (Jun 2011–Jan 2024 · 12 yrs 8 mos) [Dublin]
-Executive at EnergyCAP at EnergyCAP, LLC (Sep 2022–Sep 2023 · 1 yr 1 mo) [Dublin, County Dublin, Ireland]
-Promoter and General Chair at ACM BuildSys (Nov 2009–Nov 2011 · 2 yrs 1 mo)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>RevenIQ</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/sales/company/93815400</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>https://reveniq.com/</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>ReveniQ radically changes how businesses scale their SaaS software revenue. We do this through an innovative cloud-based data analytics platform with specialised tools to: - Streamline invoice management and revenue recognition - Manage subscriptions with pro-rata charges with ease - Analyse revenue growth of customers, subscriptions and products - Report on key metrics such as MRR, ARR (and their variances), churn, churn percentage, CLTV and ARPU - Better understand and proactively manage customer retention and churn and much more ReveniQ integrates with Stripe, Salesforce, Xero, and Netsuite to create a seamless financial "data hub" from which to manage and track revenue and identify opportunities for growth.</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAADLiHIBGAHlhorrfa1TOoNJ5PNyqN0niIQ</t>
+          <t>https://www.linkedin.com/in/alex-vikoulov/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Vikram</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Head</t>
+          <t>Singh</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Brian Head</t>
+          <t>Vikram Singh</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fractional CFO</t>
+          <t>Finance &amp; Forecast at Tryg | MSc in Management &amp; Analytics at CBS | Analyst at Hersir Ventures</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CFO at Hypo-Stream Ltd Dec 2017–Present 7 yrs 9 mos</t>
+          <t>Introduction to R at DataCamp</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hypo-Stream Ltd is an emerging pharmaceutical company based in Cambridge, UK, with late-stage development therapeutic assets.
-Delivering Fractional CFO services, Strategic Consulting and Interim Management.
-Supporting SMEs to effectively develop, scale and grow
-Martlet Capital is a pre-seed and seed stage investor based in Cambridge, providing patient capital to deep technology and life science startups with high growth potential.
-We seek to support entrepreneurs with value beyond capital. We have experience in helping companies scale from first-round through to exit.
-Driving innovation through a collaborative community.
-Cambridge Wireless is the leading international community for companies involved in the research, development and application of wireless and mobile, internet, semiconductor and software technologies.
-Armour Comms provide a portfolio of next-generation, government-certified, software-only encryption solutions for mobile devices. We deliver the ease of use of voice, video and 'rich' messaging capabilities that you'd expect, for off-the-shelf smartphones and tablets, but with a 'secure by default' approach that ensures users can pick up our solutions and use them immediately while knowing their communications are protected by governme
-Member of Finance Sub-committe
-Finance duties including dealing with a significant build up from changes in labour laws (costs) and ensuring its future by pro-active management
-Hypo-Stream Ltd is an emerging pharmaceutical company based in Cambridge, UK, with late-stage development therapeutic assets.
-Delivering Fractional CFO services, Strategic Consulting and Interim Management.
-Supporting SMEs to effectively develop, scale and grow
-Martlet Capital is a pre-seed and seed stage investor based in Cambridge, providing patient capital to deep technology and life science startups with high growth potential.
-We seek to support entrepreneurs with value beyond capital. We have experience in helping companies scale from first-round through to exit.
-Driving innovation through a collaborative community.
-Cambridge Wireless is the leading international community for companies involved in the research, development and application of wireless and mobile, internet, semiconductor and software technologies.
-Armour Comms provide a portfolio of next-generation, government-certified, software-only encryption solutions for mobile devices. We deliver the ease of use of voice, video and 'rich' messaging capabilities that you'd expect, for off-the-shelf smartphones and tablets, but with a 'secure by default' approach that ensures users can pick up our solutions and use them immediately while knowing their communications are protected by governme
-Member of Finance Sub-committe
-Finance duties including dealing with a significant build up from changes in labour laws (costs) and ensuring its future by pro-active management
-An experienced senior finance professional, focused on the SME sector, with experience of founding businesses, fund raising, VC and PE backing, as well as big enterprise (PwC, GSK, NatWest, EY)
-Key words:
-Fractional CFO, Portfolio FD, CFO, Interim FD, Interim CFO, COO, NED, Board Member
-Strategy: Business Plans, Strategy Review, Financial Forecasts, Cashflow, Business Valuations
-Funding and investment: identify funding requirement, collateral and pitch preparation (delivery or coaching), DD (Due Diligence), on-boarding and managing. Identify potential sources of funds, including investors/ VC/ PE/ Debt/ alternatives.
-M&amp;A: Investment appraisal, valuation and strategy
-Interpersonal: Experienced in communicating and working with groups and individual investors, board level, C-level as well as finance and non finance teams. Investor relations. Networking
-Accounting skills include: forecasting, Cashflow, management accounts, regulatory accounts, IFRS, analysis, tax, VAT, payroll, Norwegian VAT, Capex, Financial Modeller, R&amp;D Tax Credit, EIS, SEIS
-Company Secretary: Iotic Labs, Polymed, Pod Point, BHC
-Interests and connections: Blockchain, Technology, IoT, Fintech, Biotech, Gaming, Healthcare, Biotech/ Biopharma, FinTech, Pharma, eSport, AI, VR, HealthTech
-Qualifications:
-MBA
-FCMA (Fellow Chartered Management Accountant) (CIMA)
-CGMA (Chartered Global Management Accountant) (CIMA)
-Show less</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>Currently pursuing a Master’s degree in EBA General Management and Analytics at Copenhagen Business School, following a BSc in Economics and Business Administration, including an exchange semester in Hong Kong.
+As a Student Assistant in the Private DK Finance and Forecast department at Tryg, I work with financial forecasting, support management reporting, and deliver data-driven insights for executive decision-making.
+I also serve as an Investment Analyst at Hersir Ventures, focusing on investment deal analysis. I have previously worked as a Junior Financial Analyst at a startup called Holo, sharpening my skills in financial analysis and data visualization.
+My main areas of interest are finance, economics, data, and investments.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Copenhagen, Capital Region of Denmark, Denmark</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>CFO at Hypo-Stream Ltd (Dec 2017–Present · 7 yrs 9 mos) [Cambridge, United Kingdom]
-Fractional and Interim CFO at BH Consulting Limited (Jun 2013–Present · 12 yrs 3 mos) [UK]
-Fractional CFO at Martlet Capital (Jan 2024–Jun 2024 · 6 mos) [Cambridge, England, United Kingdom]
-CFO at CW (Cambridge Wireless Ltd) (Jan 2023–Jun 2024 · 1 yr 6 mos) [Cambridge, England, United Kingdom]
-CFO at Armour Communications Ltd (Feb 2019–Jun 2022 · 3 yrs 5 mos) [London, United Kingdom]</t>
+          <t>Introduction to R at DataCamp
+Corporate Finance: Financial Modeling at LinkedIn</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Hypo-Stream Ltd</t>
+          <t>DataCamp</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/96485254</t>
+          <t>https://www.linkedin.com/company/3227175/</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>https://www.hypo-stream.com/</t>
+          <t>https://www.datacamp.com/</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Using phylogenetics as a guide, Hypo-Stream has investigated the phylogenetically conserved Innate Immune Response (IIR) to discover the lead asset "M3", which originated as an agent for homeostasis. M3 is one of several and the most potent evolutionary successor to antibiotics. Our research team discovered broad spectrum antimicrobial action without resistance (including WHO list of AMR pathogens of concern) &amp; multimodal anti-inflammatory action via functional neutralisation of Il-6, TNF-a and Il-10. + modulation of the Dublin-Boston ratio (seen as critical in ARDS and scar amelioration). Hypo-stream holds multiple granted patents in global territories for the pharmaceutical use of our compounds along with Orphan designation in a High value clinical use. CHMP from EMA confirms Phase III ready with an EMA orphan designation. Lead asset in orphan class burns, conflict and military trauma / gun-shot / IED trauma flash-burns.</t>
+          <t>There is incredible power in data and AI—but only if you know what to do with it. DataCamp teaches companies and individuals the skills to work with data and AI in the real world.
+Our mission is to democratize data and AI skills for everyone. Companies and teams of every size use DataCamp to close their skill gaps and make better data-driven decisions.
+We work with
+4000+ companies
+3000+ academic organizations
+14+ million DataCamp learners
+And a global learning community spread across 180+ countries.
+At DataCamp, we believe that everyone deserves access to high-quality education and data and AI skill development for a more secure future.
+From our first-class courses, projects, code-alongs, certification programs, and DataLab—we are an all-in-one platform on a mission to democratize data and AI education for all.
+Want to learn on the go? Download DataCamp Mobile 📲 and master in-demand skills through daily 5-minute coding challenges. Download now 👉 https://tinyurl.com/3mtauuz2</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/lead/ACwAAAABxZsBxN4UYu9e1vQncbAqlCbr7RvYdMw</t>
+          <t>https://www.linkedin.com/in/vikramsinghdk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Catherine</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sebastian</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Catherine Sebastian</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mortgage Progression Specialist at Knight Frank MENA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Discourse Organization of Filipino and Singaporean Opinion Columns</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Experienced and results-driven Administrative and Mortgage Progression Specialist with over 10 years of expertise in providing exceptional customer service, communication support, and mortgage conveyancing within global organizations.
+Proficient in managing mortgage conveyancing tasks throughout the workflow, ensuring efficient and timely processing of cases.
+Equally adept at supporting operational functions, including managing appointments, correspondence, and generating reports with a high degree of organization and analytical insight.
+Skilled in basic accounting and bookkeeping, with a strong attention to detail and a focus on delivering accurate financial documentation and support.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Dubai, United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Discourse Organization of Filipino and Singaporean Opinion Columns</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/catherinessebastian01/</t>
         </is>
       </c>
     </row>
